--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720F72D-7DAD-4BB0-BAE6-2F10ADF42BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AF5B6-5EF2-43D7-8D19-0EE3407510EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4185,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA099812-DBD2-4220-9B8E-D191DD272CF2}">
   <dimension ref="A1:G1260"/>
   <sheetViews>
-    <sheetView topLeftCell="A1217" workbookViewId="0">
-      <selection activeCell="N1235" sqref="N1235"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
